--- a/SE-4348.502-OS/Grades.xlsx
+++ b/SE-4348.502-OS/Grades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\GradesTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\SE-4348.502-OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CA5F47-68D4-43F7-83AD-CCD6C7AD4E95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1283E7-0B60-4EEC-A154-4BE98B9CB28F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4830" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,13 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -662,7 +669,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="14">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F5" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="12">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H5" s="12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="23">
@@ -745,11 +752,11 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" ref="C6:H6" si="0">COUNT(C8:C21)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
@@ -757,15 +764,15 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23" t="s">
@@ -783,28 +790,28 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>0.27</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>0.19800000000000001</v>
+        <v>0</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f>SUM(C7:H7)</f>
-        <v>0.8680000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="5"/>
@@ -813,24 +820,16 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22">
-        <v>1</v>
-      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="10">
         <v>0.9</v>
       </c>
-      <c r="F8" s="20">
-        <v>1</v>
-      </c>
+      <c r="F8" s="20"/>
       <c r="G8" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.66</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="10"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
@@ -840,17 +839,13 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="17">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="21">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="12">
+        <v>0.8</v>
+      </c>
       <c r="H9" s="12"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
@@ -861,16 +856,10 @@
       <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="17">
-        <v>1</v>
-      </c>
-      <c r="D10" s="19">
-        <v>1</v>
-      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="21">
-        <v>1</v>
-      </c>
+      <c r="F10" s="21"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="23"/>
@@ -882,16 +871,10 @@
       <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="17">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="21">
-        <v>1</v>
-      </c>
+      <c r="F11" s="21"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="23"/>
@@ -903,16 +886,10 @@
       <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="17">
-        <v>1</v>
-      </c>
-      <c r="D12" s="19">
-        <v>1</v>
-      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="21">
-        <v>1</v>
-      </c>
+      <c r="F12" s="21"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="23"/>
@@ -925,13 +902,9 @@
         <v>6</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="21">
-        <v>1</v>
-      </c>
+      <c r="F13" s="21"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="23"/>
@@ -944,13 +917,9 @@
         <v>7</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="19">
-        <v>1</v>
-      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="21">
-        <v>1</v>
-      </c>
+      <c r="F14" s="21"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="23"/>
@@ -963,13 +932,9 @@
         <v>8</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="21">
-        <v>1</v>
-      </c>
+      <c r="F15" s="21"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="23"/>
@@ -982,13 +947,9 @@
         <v>9</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="19">
-        <v>1</v>
-      </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="21">
-        <v>1</v>
-      </c>
+      <c r="F16" s="21"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="23"/>
@@ -1001,13 +962,9 @@
         <v>10</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
+      <c r="D17" s="19"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
+      <c r="F17" s="21"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="23"/>
